--- a/biology/Zoologie/Coniophanes_bipunctatus/Coniophanes_bipunctatus.xlsx
+++ b/biology/Zoologie/Coniophanes_bipunctatus/Coniophanes_bipunctatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coniophanes bipunctatus est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coniophanes bipunctatus est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud du Mexique, au Belize, au Guatemala, au Honduras, au Nicaragua, au Costa Rica et au Panamá[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud du Mexique, au Belize, au Guatemala, au Honduras, au Nicaragua, au Costa Rica et au Panamá.
 Sa présence est incertaine au Salvador.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (29 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (29 août 2013) :
 Coniophanes bipunctatus bipunctatus (Günther, 1858)
 Coniophanes bipunctatus biseriatus Smith, 1940</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, 1858 : Catalogue of Colubrine Snakes in the Collection of the British Museum, London, p. 1-281 (texte intégral).
 Smith, 1940 : Descriptions of new lizards and snakes from México and Guatemala. Proceedings of the Biological Society of Washington, vol. 53, p. 55-64 (texte intégral).</t>
